--- a/Timeline.xlsx
+++ b/Timeline.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jfex4/Documents/Data Visualization Project/CS-4263_Donations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D1E9354-B85C-5045-8101-FC92A3A920E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C49C59-458E-754D-94A1-E1DF229ECA34}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1134,7 +1134,7 @@
   <dimension ref="A1:AJ50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="109" zoomScaleNormal="162" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1617,7 +1617,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="21">
-        <f t="shared" ref="G10:G13" si="3">SUM(F11*J11)</f>
+        <f t="shared" ref="G11" si="3">SUM(F11*J11)</f>
         <v>0</v>
       </c>
       <c r="H11" s="32">
@@ -1730,21 +1730,21 @@
         <v>43797</v>
       </c>
       <c r="D14" s="19">
-        <f t="shared" ref="D14:D16" si="4">DAY(C14)</f>
+        <f t="shared" ref="D14" si="4">DAY(C14)</f>
         <v>28</v>
       </c>
       <c r="E14" s="27">
         <v>43810</v>
       </c>
       <c r="F14" s="31">
-        <f t="shared" ref="F14:F16" si="5">DATEDIF(C14,E14,"d")+1</f>
+        <f t="shared" ref="F14" si="5">DATEDIF(C14,E14,"d")+1</f>
         <v>14</v>
       </c>
       <c r="G14" s="21">
         <v>0</v>
       </c>
       <c r="H14" s="32">
-        <f t="shared" ref="H14:H16" si="6">SUM(F14-G14)</f>
+        <f t="shared" ref="H14" si="6">SUM(F14-G14)</f>
         <v>14</v>
       </c>
       <c r="I14" s="18" t="s">
@@ -1976,13 +1976,6 @@
     <row r="50" ht="13"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="J6:J7"/>
     <mergeCell ref="F6:F7"/>
@@ -1991,6 +1984,13 @@
     <mergeCell ref="U6:Y6"/>
     <mergeCell ref="K6:O6"/>
     <mergeCell ref="P6:T6"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
   </mergeCells>
   <conditionalFormatting sqref="J9:J13 J17:J18 J20:J24 J26:J29">
     <cfRule type="colorScale" priority="4">
